--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/15_Bayburt_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/15_Bayburt_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{809ED09A-2D05-4CAD-9769-2F3379C7301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E287072D-3F41-4E14-85D4-822C158931A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{84CCA0EB-C49D-49F8-957C-65166658A0F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{68CC6576-895F-42AB-A707-B166A65A2215}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -989,14 +989,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7A8A7790-9ADB-4A8B-9AB2-D1C76E81523F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DF37EE5B-ECC9-4468-8C7A-7D1BB63FB02A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{16EF44B8-F14E-4845-A512-178F1EB60E92}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D183351F-4606-4AF5-ABAC-FBB6204A64ED}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CFDECD52-4C8B-4125-AD07-864181168D41}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BCE4DAE9-37F7-4023-87D2-E76952F7CB80}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{87AE43C8-F119-4190-B94E-1BEC887DF63C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0F7A5D65-D8CB-48CB-9572-E7177B2759FC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{77385E3E-7047-4C9C-9655-C6385F9B9532}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D240D2C1-6BC9-4047-B79A-015E91D71E3E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C33D9937-782C-4B61-B4A4-B04A826EDEBC}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D9D7C37D-27C0-4B3F-A9EE-2F6DA102A0EA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6A4A5932-9ABC-4C3B-B8E7-B05C881805DD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B31EFA0E-AA0F-4022-9DDF-EFB51509B75D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E9F4E6D9-B1B0-41E1-8B5C-EE4925221979}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7A353B21-DE83-403F-A833-39A20E043C84}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1366,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A26094C-5FAA-46D5-9F30-16A91B699F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F328D3C-490D-4926-B908-D3ECB1D2E960}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2581,18 +2581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{555E7FC1-A9AA-4D92-A524-7E0E0757EF43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D2007CF-0B83-4DB2-8320-C8D3BDA1DB9C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4D027638-47F3-4108-BAFC-8896B75855FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0CDFB1C7-B5FF-4F44-BC2A-DD16B79B2F29}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A23D428E-051B-4944-83C0-F176BC90FE32}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C7BE36B-FF99-4C8C-AB5D-E06013AC9C0D}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{25012B66-0E6D-4512-98F8-5A3C9C05F07F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD90EFA4-3C73-4F79-8A74-6D882030EFC4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83BB2967-2FDC-424B-A0FF-96FFF5D7EAB1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4F79BEBD-0CB8-4073-BE90-6143F2F41EF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0871538E-5870-43A7-BF95-089D991EE8DE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F30D7BA-A6EF-452A-A2D1-12B3CDAD7EA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E818F73-7BBB-4B3E-9CB5-8D15B811F9A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7BCE93D-C877-4B12-8B1C-1AA8C3903854}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9583619-9A93-42D2-818B-8F5D2CAE3B0F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE032E2C-3368-4ED8-8F85-8A31B5EC424A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D15B153-CE46-43C7-B393-D9526ACE0173}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6144B311-A785-4249-B940-60997BD12411}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1ACF3AC7-F9B7-4F91-8841-BD4E8957FF81}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1B5B02E-D827-4369-B58D-38582ABDD3D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A3D3882-837D-48A6-BCE8-E0937D840228}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{28A62CBE-8C36-4F07-B31B-34A076388E7F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBBF9A29-4D22-41CE-B1AC-65A41C2400DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B8FA590C-2B39-49E1-B9D7-F29431829D8E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2605,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830A47B3-8FA1-4B04-9D28-0C9BFAE41747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD35825-5442-4683-B740-1FAAD9ECF04D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3794,18 +3794,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F56B8369-D6F1-409F-AD70-9BE6F22B9B63}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90ABCA74-2456-4246-9CFD-4E9950726A61}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8018710-1071-4910-8B43-477FD73330BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6614AD84-9C1E-4BC3-8D87-6E6A4AD81664}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD2FCE49-38D7-420F-974D-BA8DC2B0B4B4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF004116-01C8-4AD9-AB38-3A205CBD8E8E}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{91E2FD08-AF96-480D-9B52-9E2684B85333}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DB18BBA-563D-41C5-92DA-210F1D673C38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADDB9471-DBAF-49A0-BDAB-4DB892C16379}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E219E385-1C7C-4F97-A54D-F4D7E1564CF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB080E9F-FEFC-4EFF-8102-1F9ADAA97E5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF477A5A-A83D-46BF-AF5B-1930110E2AE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97A9A6FD-FCFC-4A16-9380-3D72CB565415}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{654CC2C5-0860-4062-BAD9-61B67A5A33FC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4A4335A-FE32-4A8D-8C96-DD11C628A27C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CEC5ABC8-8DC4-44FA-A205-B5A50DCE599F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{165B29BC-A868-494A-9FF8-5850F3B0B06D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B2C317D1-8187-4D55-B619-68D7F67F2786}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{CF35740D-312D-435E-B780-4E13DDA9503C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5DF207F-D422-402D-9DE7-FE7E49D11C39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{573ECA92-7672-4D1C-9013-A78B8AACAAA8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B812D1A9-C756-423A-B9CF-FD459A350BA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06EB242B-CAD1-427C-8D68-1C02C1A768CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0EBAE09-D200-423A-87D1-C95AFFBAE33E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC5556-EE24-4594-B29F-B3A66ADD40CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C0E3F4-6E59-474A-852B-710519E2B9D7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5007,18 +5007,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC469605-8784-4428-9641-562B6F79BA02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B153744-7522-454A-ACBB-1A73A22543D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2FEEC9FB-27D5-4FFD-8E23-27D56287031A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{268A045B-AE5A-4C33-8A7B-6BAF85D87CB3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BF980FD-D28E-4146-A3E1-4871969BE081}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF86AD97-CDC7-4C81-8964-6C967E5F41B3}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2CF976EB-4D28-441A-8F98-A0207707C939}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E262B725-1942-46AE-8C19-641541A009E4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68DF7207-B941-4368-99AF-3B6354F6C5F1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6BEFEEAF-194D-4ECA-BD46-0D0A14AB4E3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB7DB6E1-244E-4FDD-BAAE-1D06ACBE297B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A988F4FD-BE7B-4875-A6FD-ED4E8704F1B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D55AE39A-FFC2-4245-B10F-047BB3B5E57C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0A115853-E42E-4DFD-958C-A71D3CD5F31E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E03719C-EE0B-4473-8B3F-0A15FC01B5E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8815455E-C65C-45CF-910E-782443ACE578}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38EE2CB5-665E-49E6-92F9-A8CCC1C69214}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35761A48-2E60-48CA-8EEA-8D83578170D4}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{F74E2999-BF07-45D3-BDE3-41A23C7F61D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6DA65F1-AFC0-4AEC-99D6-A3E7481E8AA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C1CC2C9-3D1B-4A8B-9143-CD85EFD69094}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B94C3C42-3506-4E40-BEC2-2F929D935FB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AA8B4E4-9E02-4C20-87BE-F58885F057B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05E2BA51-F66F-4C13-A92B-F78573579874}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5031,7 +5031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1C74CA-DFB6-4261-A6DB-41274C710F21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB827660-06F9-4DB6-B1DF-5D5EE107E587}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6214,18 +6214,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{984E7C40-C58A-4868-BF81-51B152E093E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74331754-576D-4AF6-902D-D10DE64A78B9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{246402E7-9FBC-47CE-8552-C1E5431BB6DB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{437DDB53-9B3E-46BC-9038-7FA9E7462C38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C639800E-C235-497D-8A9A-66F173DC4BD8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A64B15D5-D563-4B35-B3F6-C1B452959355}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6570A6F8-37E3-48CF-804F-D99CEABFF771}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC1C1440-BD40-40EE-BC19-576F8C53919F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E9C88A6-C6FD-4B36-98E1-D4DB9438CCE2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BDF5B376-D24B-4DCA-B030-1BE83D89BFDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39975036-683F-4874-BA5C-1778B34A8535}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56DF62C4-AA2E-4305-95FD-07D365714359}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1A930A3-11EB-4B75-A0F3-078290FD798D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B1C5A6E-9B11-4511-B6E1-00E9C404A486}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4FE3A03-8FAA-442C-B320-991DE66DE6CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A014F4E8-3959-434C-939E-C50DE7BAAD7E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FB35F40-5BDB-48CE-9308-BA8F3D8F0BF5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6FDBEDBD-32FA-4DC6-AA0E-E816404C4114}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3E9ED948-F479-42C8-B479-4FEF2C4F8BE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A9BA9E2-7B05-4638-8614-AA4927FA0994}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{899057A0-ECE8-48E6-86A3-A83EBD5AB7F3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{914661AC-E104-4E77-8124-F65BCA4415BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB69AEF4-3081-48DA-BB8E-65F1295334B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{720C48DF-F33F-49B2-92E5-0B92C7C72F33}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6238,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4D88D4-78C9-4FBE-A844-64187893512A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182696AA-3594-408C-A81F-201A851D576E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7453,18 +7453,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{385452D5-CC4D-4E94-BC9D-7BEF74223E4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58881A4A-3CFE-427D-860D-59210D1086A1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25CA30B5-FA6B-4A4E-A509-59EF23F70AB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{842E24F1-7638-4F0D-A9D8-5231EA13FE90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C8FB763-ADB2-4943-A178-90EDC7B668A6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8EEC1B32-CC6A-48EB-A4A1-D64EACCCDE9F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4A35CD7A-CCD7-4280-AFAC-DAB6386B12F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABB0FB41-171A-4D78-92B5-4A155A824E74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3156CAB9-BEEB-4BCC-ADF8-DFDE13B95878}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{39B0C48C-B1DE-496E-B424-4CA71EC06195}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{939AFBAF-DF0D-43C3-A8DB-46BA7FAFB62E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50AA935C-1C79-4279-B6ED-20BD65BDB716}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6766A501-CC78-419F-ACB1-766CA52B5B57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25045F17-7114-4DA1-9705-FB0679DC996A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AB7AB3AD-2752-4950-B047-04B7FCFD3D99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08B3870D-C5BB-4927-806F-E7369A26CD4A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37C7D4D7-BF25-4F42-A2AF-3E25B6746298}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5A973BCF-5FD4-4067-9073-F9FD0B8A0459}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2654114D-723E-4823-BB94-A6E44410510F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A84B640-7E42-4B01-BE00-D51D4891AB82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C7CB1D9-9B77-4055-9410-ECD22BF7104C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{79056E12-3853-4F97-A2A7-62F4C68864C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{636D6AD8-9C97-489E-9726-1C5058120180}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6DCD9F0-42D8-4509-B70A-C57C0B2D8BD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7477,7 +7477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C4BB64-9B51-4D8F-BE88-88415DB6D418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672DA0F6-6A9E-484D-AC95-8F379D13D8AC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8692,18 +8692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DFF6A2E0-3C5C-4B37-998F-81C86A29734D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCF23B73-E865-48E3-BA71-E729358E175D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AD8462DD-9CC2-421F-AECD-20CCF6E1B495}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D9D4090-5DDB-49CB-8A0D-2E09717DC941}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F72BEA88-95F4-42EE-858D-4700A78149F2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6FD1F553-D24A-40B4-B931-0D1F667471B9}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BA0DB0B7-F0AB-45B7-8C9B-A82783331F04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{556FFE65-2036-4CA7-B5EA-F7866F9CC155}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18E76748-72CA-4BF2-96E0-47B52020496F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{728D0E46-EC75-4CD1-9B26-326205D7CC92}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90551C65-AF7E-4913-8810-47E9127E28A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC6C8942-7A89-4FD6-8B73-B03CA4127250}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37D4455D-6EF8-4E73-8C7B-27B847FB6EBA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4A0C5D6-75E8-4518-B6B4-D4A2AE094E72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C74FC728-B666-426E-A91B-A6B3F6028970}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E33A165A-2E2B-4B8B-A398-22E92F223628}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C6EE2D5-D38D-46F0-B130-E2F09FF187A0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C8B011E-15CB-4851-B5E3-ECC591FB0BAC}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6C34BF3A-3D81-456F-A6C9-980D5F531B4E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2BDCE620-15B1-4F42-A5F7-370BCC40153C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0B9B999-51BF-4E29-B307-7D107A10B1BB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F377B5A6-467D-4F25-B357-738FC963DE03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F569FBC8-24CD-474B-B3A0-55A24DEAE22A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C294630D-F5C7-4D8A-82B9-FEF1599A29A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8716,7 +8716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A820E02-BC67-41C1-A35A-F264C180AC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5338D26-8D99-4A49-8E54-E62604883A26}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9931,18 +9931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43D5204B-BA08-4C90-BB64-66A46F8FAE61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C59E4AC0-8CD1-461C-BDA6-6C6ADA73DB39}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FC20E1E-0196-4119-8124-452F436CF06B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A53A4F42-BEF1-4A1E-BE3A-D919C7AF39F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{056BFB59-9366-42E5-9C1E-F231E8CBC3FE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C9BB30B-4559-4E76-8F38-2F632846EAE7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{AD1C8735-218A-4E6F-8416-9C828893BDFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC43AFB3-4ACA-4D43-972E-B17663685308}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29637EC7-7B20-4B25-98B4-138FFA8B4662}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FFD49DE6-CFC0-4FF0-B27B-DC2846CDED8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1D4D11E4-7AD1-43CD-9CCF-0F6BF92E340C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F79D2B76-1E1E-4B9C-8B8D-BB275379B02F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76B4898A-3806-4DF5-BD49-DD59F10288F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{997F5244-44EE-43FC-860D-AC3D72266A51}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{096EAAB4-4C5E-4E3A-B22D-B62E7CAB55B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E43E683B-100B-484A-B640-BB3CCCF32263}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C2E6EEA-3A0F-40D4-8FB6-25ACAA90DFB5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EA825C8C-522B-4031-9FFF-0AA3E1575654}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{18C810E9-D1D4-46AF-9EFD-3174A72E372A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94887835-C75A-4ED7-8BC0-FAAABB6BC3AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{99A7CE23-44AB-405E-B24B-F8CE586B3188}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{645A893A-52AB-4D95-AA30-250804A8A666}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B293A44E-3D84-413D-85E5-2551A7D51633}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{977B7AFC-CCCF-45EA-B75E-4DCDDF686402}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9955,7 +9955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347D3D27-D0C3-4ADF-9C95-3F1312AE1529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B0120D-5CCE-477B-BEC6-FCBD5EA97175}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11170,18 +11170,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1738393F-C65B-4E1A-B358-1E803537A10C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3709E9CD-CD1F-46E0-BAB0-BA194B0CC26F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C199BA6C-ADA6-44FC-AF63-55EE37B92FF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9D666B8-2D02-46B1-AA62-E49B7F12D4CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5921F71E-2A4D-4FF9-8E24-2F6808950B6E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41C29048-EEF6-44BA-A9A3-882020A42529}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{01C72E11-765C-441E-AD48-8B57778E7736}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80CDB12D-F3D5-4626-97D5-56F22E79D305}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3C8C825-B5D1-4B9B-B56A-80E737C76E49}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{15710131-AC4F-4E9E-BFC3-057C5CF063CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F38C2B76-1849-4D81-8E81-330AD3BD36C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF3CDD06-D587-44B3-8668-A025CB0F53BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EA132C7-FA89-42C0-A005-B66FABCB2CDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65A15782-2993-4415-BCF0-BB0E7F0B0C62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{012725F0-1FA4-4144-99C8-02A142A82318}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CC411CA-3593-4C54-81E1-FAA1AFF5538C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCE0506E-6B0A-40E9-AA8F-91D5C85CB597}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9A42932-FF26-4CF9-B56F-8B68333571EA}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2E7409B5-E03B-4A40-ACB5-D8F3FA3FF046}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AEFCCB1-1217-4D81-956C-73270D1F6F7A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF3CA4EE-E9A1-43AA-83CF-01779B5E4A7C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40396CE6-FD8A-46B6-A99D-B2445FDF54E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E10B1D2F-7DB4-4186-8A47-39389B1EB078}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD05D4AA-C6A7-476D-83A8-BDFB6CB0094D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11194,7 +11194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718C064-D887-417C-AEEC-94F41AADD4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4CBA9-9E67-4ECA-A59A-6E0BF97F65BA}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12401,18 +12401,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7669306-6051-41EF-8012-ED6315D3E4FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58835AF0-EE16-4C58-9696-2B423BF3F78F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BCF4054-5614-4389-B3BE-A6E38097A184}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{748F54AB-7D36-49AC-8A61-72BACD3FBBD0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67E6CDBD-C544-47B2-A2C1-25B41220F4CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{59C716D6-99AC-47F2-9E3B-AA01EACFF22F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3BFEE2D2-BE2E-483A-AF5C-EDBC949CBDE0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6539B0D-149A-4284-A61B-9B24239EA183}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18DFF78F-6DF2-41C1-A4A6-DA4952B64A42}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{487A5196-E4A1-464B-9585-B2A2A9F52011}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C4DC7F69-9885-4DB5-8183-C19F98B7D36C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93C5CCE3-6FC5-4CD4-BABC-5682BC5B0467}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42DB2809-1144-4449-AEC0-4142D090DB4C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{279F6B01-5E5B-4D47-9B96-5949584F21B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{533ED068-D02B-4A03-8B64-EDC8E7CB9E4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B65DB3B-2157-41BF-A6E5-01A264F782EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A0FD5ED-115B-449B-8AC4-17C500C5B647}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD67BC35-16EF-49CE-BAB3-77AE9563EAA2}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{45B1D3FC-A4F9-4D6B-8836-A9058DD7277A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8588B3F-7783-44A9-8B82-1FDCE6B2899E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C8AE50EE-9F4C-40BF-BF65-E35FD61331F0}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D9070107-A7F9-434B-8D2B-B23F41EB4A6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8172E112-4E94-48A0-AEE8-EEFC1ED84D36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7F2ACC6-72D8-47F8-9496-B6F8AE8E018A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12425,7 +12425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FDF8E6-E790-4377-B89E-053A1E7AC70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B23A9E-BE3F-4A6B-BF78-31A136ECD8F2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13614,18 +13614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62B0CB6D-B9A1-4AA9-B48D-4AC5CC4ADA48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75FCCA6B-3837-43E4-B5AE-346A3B6B097A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31F06874-D234-4D82-9F58-9CAC6E77F3AE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A7A1A9F-FF18-4053-8990-90F3602E2892}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{905249FD-E210-4471-89B9-2BD05AAE3445}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{57C68D19-0EF1-425F-AC86-ADB1A7A4C0B9}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{E053643E-491F-4F25-8A88-1324EA70B3F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{414EACD0-57E8-4878-9A26-C3DB393C2EE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D86AF11-6EE1-41E5-B5F1-4D21A712B93B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8C681CD9-03F6-4194-9E5F-6F6395B50A25}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39D66FC5-E3AF-49F0-9D6F-4D648786241E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7D0743C-CFD8-4170-B982-1C9CADF2E267}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30771F8B-FD5B-4C44-B930-7E77A96DB9B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8993C4AD-3680-40FE-A4C6-824BDA4859D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23252D8C-1F95-4537-A7E0-9C3C8660D456}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0C7754EC-EA56-4DC3-9FEA-2C232C4E5DD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E480BBB0-833D-4A0F-8435-FD8D359DA814}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FF7AB10A-ECB3-4A14-916E-D14E67945F5B}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C660F7B3-F503-4DF8-8806-7C66B5E96392}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68763226-6FA7-4F71-8518-364BBCDD32DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4FBE1F3-0582-4774-BDCC-9FA278AF6607}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{560764A5-B9B9-4629-9A24-5A21621FF86D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{125B80AF-D71E-441B-94C5-4B1B864922BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC80AFA8-EB20-4750-96F7-91852EBF6608}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13638,7 +13638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47287C7D-A011-438A-A572-5E02F2EB3BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD6F8C5-1334-4A83-8EC1-589585ACA1A8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14827,18 +14827,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71C6BB2E-800A-47E7-9282-5BB5FC01D55F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D6067A3-E95C-4DD8-88DA-163E38B27F4E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{971AC4B1-F3BF-48AA-AA44-E49FB358C229}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AF25C92-2109-4B6D-A8E5-9513268F8AEB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{848F177F-3A37-4291-80C6-01AE9CDB259B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9F73F138-8D7C-4883-9EF5-7C6CD2537536}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4D818855-1351-413A-A22B-A0C496019865}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4B7B741-469D-46C2-989E-A8A94CDAFC38}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{14707DDD-FC31-4BEC-897E-9039BC2D3933}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{05DFF8DD-7AC3-4F23-8FC0-6A5134280B74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8826092-9520-4664-8DF0-042B08F1B1E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6952F117-D6BD-4A5A-8F1C-7EF249EF01F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAD0568B-F14E-43BB-BCC4-61A8E17A9F70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20397051-8C7F-4C65-860C-3B578616EFDF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA440264-F804-4F6C-A3B5-A9F08BAD767A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D065F52-2966-48BE-9259-305F92398AA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46A5F66E-C1CE-4F71-974C-4A8C865F6B13}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{952AE809-3F3A-4629-B542-1B715B74B1EC}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{2EC87AA6-7E4A-418D-8726-23A63A2B5FF3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{955AAD34-F8B3-495E-8705-05FDFFD33A73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C95A305D-0638-4C5C-9424-F969EE6E5C9A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A1AE379A-8096-4C87-A601-E0E70DD26B07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{971C5112-D280-4B95-90AC-9C261AC0AF2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{831B83E8-E914-412A-B1B9-7AA5AECF00D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14851,7 +14851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8DA5BA-13DE-4A0F-A16A-1E7F551970A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE7C1B-5095-4C69-BD2A-4A119DCFFFE8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16040,18 +16040,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92305B11-1BF6-4D14-923A-FEC2DB348039}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{401307F7-ED19-4B3A-AAEE-87C4DDD8517A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3FD7E57-7A61-4E6A-A100-274C2AA6AE5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F642C3A7-1674-43A3-900C-CBB82ABC09A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52FD1676-9BD3-4B20-A84B-CE60CED56191}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C10AC925-6ED8-4433-B80B-E9BE8C32387E}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{46EDECBA-CE20-4AFB-B827-272952580E72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EFFBC89-1BA8-463C-A9A9-7F6F158831B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28D3B7FD-A50F-4CA5-ADA6-BAAACD8951C3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BD753E23-E452-4133-B142-1151B049B6E5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A24B337-0A1B-43DF-9E51-8DDB768C4B9E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B872524-5882-4B08-8AC2-CC9F5CC5512B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1657CE3-B8C0-458A-ABFE-6F310F665A16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3E6402E-E574-4568-B2BF-201CAFFEC3AE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CE8BB35-1BC4-41CB-B00B-A22B75B3CDDC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF8DE4DB-B209-484E-A813-3BA5878358E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1B59675-4970-4584-88F5-3F381C4245D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0FEF263D-C589-4185-80AC-56458C142C5D}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4772E041-0D58-4935-9133-F2D781DA46EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5675BE7-A5A1-4B8F-8A4B-77022BA5EBDF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{404D8FF8-AA19-40E9-8297-BA345F5AB776}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{63B38626-170B-43EB-B82E-C012AB28F718}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{195E782E-27BD-4C67-8B30-5704EE670316}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB462BB9-88D9-4246-8D4F-C87A0E679AB0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
